--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/training/training_act12d0_01_c.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/training/training_act12d0_01_c.xlsx
@@ -56,7 +56,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_ccheal")] Wait, aren’t these your underlings? Why are they wearing Rhodes Island clothes?
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_ccheal")] Wait, aren't these your underlings? Why are they wearing Rhodes Island clothes?
 </t>
   </si>
   <si>
